--- a/2014/ldd/BaseModel2/BaseModel2.xlsx
+++ b/2014/ldd/BaseModel2/BaseModel2.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Brick</t>
   </si>
@@ -62,6 +62,15 @@
     <t>40 - Transparent, 26 - Black</t>
   </si>
   <si>
+    <t>4546542</t>
+  </si>
+  <si>
+    <t>COLOUR SENSOR, ASSEMBLED</t>
+  </si>
+  <si>
+    <t>208 - Light Stone Grey, 199 - Dark Stone Grey, 194 - Medium Stone Grey</t>
+  </si>
+  <si>
     <t>6009811</t>
   </si>
   <si>
@@ -89,10 +98,19 @@
     <t>1 - White, 194 - Medium Stone Grey, 40 - Transparent, 199 - Dark Stone Grey, 315 - Silver Metallic</t>
   </si>
   <si>
-    <t>4120017</t>
-  </si>
-  <si>
-    <t>TECHNIC ANG. BEAM 4X2 90 DEG</t>
+    <t>4211655</t>
+  </si>
+  <si>
+    <t>TECHNIC 3M BEAM</t>
+  </si>
+  <si>
+    <t>4297199</t>
+  </si>
+  <si>
+    <t>TECHNIC 7M BEAM</t>
+  </si>
+  <si>
+    <t>208 - Light Stone Grey</t>
   </si>
   <si>
     <t>4611705</t>
@@ -107,6 +125,15 @@
     <t>TECHNIC 13M BEAM</t>
   </si>
   <si>
+    <t>4542578</t>
+  </si>
+  <si>
+    <t>TECHNIC 15M BEAM</t>
+  </si>
+  <si>
+    <t>1 - White</t>
+  </si>
+  <si>
     <t>4211573</t>
   </si>
   <si>
@@ -128,10 +155,10 @@
     <t>23 - Bright Blue</t>
   </si>
   <si>
-    <t>4514553</t>
-  </si>
-  <si>
-    <t>CONNECTOR PEG W. FRICTION 3M</t>
+    <t>4107081</t>
+  </si>
+  <si>
+    <t>CATCH W. CROSS HOLE</t>
   </si>
   <si>
     <t>370626</t>
@@ -150,6 +177,12 @@
   </si>
   <si>
     <t>BEAM 3 M. W/4 SNAPS</t>
+  </si>
+  <si>
+    <t>4296059</t>
+  </si>
+  <si>
+    <t>Angular beam 90degr. w.4 snaps</t>
   </si>
   <si>
     <t>4610380</t>
@@ -371,7 +404,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="6009811 Screenshot" descr="6009811"/>
+        <xdr:cNvPr id="6" name="4546542 Screenshot" descr="4546542"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -415,7 +448,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6057952 Screenshot" descr="6057952"/>
+        <xdr:cNvPr id="7" name="6009811 Screenshot" descr="6009811"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -459,7 +492,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="6009996 Screenshot" descr="6009996"/>
+        <xdr:cNvPr id="8" name="6057952 Screenshot" descr="6057952"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -503,7 +536,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="4120017 Screenshot" descr="4120017"/>
+        <xdr:cNvPr id="9" name="6009996 Screenshot" descr="6009996"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -547,7 +580,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="4611705 Screenshot" descr="4611705"/>
+        <xdr:cNvPr id="10" name="4211655 Screenshot" descr="4211655"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -591,7 +624,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="4522934 Screenshot" descr="4522934"/>
+        <xdr:cNvPr id="11" name="4297199 Screenshot" descr="4297199"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -635,7 +668,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="4211573 Screenshot" descr="4211573"/>
+        <xdr:cNvPr id="12" name="4611705 Screenshot" descr="4611705"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -679,7 +712,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="4121715 Screenshot" descr="4121715"/>
+        <xdr:cNvPr id="13" name="4522934 Screenshot" descr="4522934"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -723,7 +756,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="4206482 Screenshot" descr="4206482"/>
+        <xdr:cNvPr id="14" name="4542578 Screenshot" descr="4542578"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -767,7 +800,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="4514553 Screenshot" descr="4514553"/>
+        <xdr:cNvPr id="15" name="4211573 Screenshot" descr="4211573"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -811,7 +844,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="370626 Screenshot" descr="370626"/>
+        <xdr:cNvPr id="16" name="4121715 Screenshot" descr="4121715"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -855,7 +888,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="4140806 Screenshot" descr="4140806"/>
+        <xdr:cNvPr id="17" name="4206482 Screenshot" descr="4206482"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -899,7 +932,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="4225033 Screenshot" descr="4225033"/>
+        <xdr:cNvPr id="18" name="4107081 Screenshot" descr="4107081"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -943,7 +976,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="4610380 Screenshot" descr="4610380"/>
+        <xdr:cNvPr id="19" name="370626 Screenshot" descr="370626"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -987,7 +1020,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="4539880 Screenshot" descr="4539880"/>
+        <xdr:cNvPr id="20" name="4140806 Screenshot" descr="4140806"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1031,7 +1064,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="4540797 Screenshot" descr="4540797"/>
+        <xdr:cNvPr id="21" name="4225033 Screenshot" descr="4225033"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1051,6 +1084,182 @@
       <xdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="3448050" y="16964025"/>
+          <a:ext cx="813600" cy="813600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="4296059 Screenshot" descr="4296059"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="image21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3448050" y="17802225"/>
+          <a:ext cx="813600" cy="813600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="4610380 Screenshot" descr="4610380"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="image22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3448050" y="18640425"/>
+          <a:ext cx="813600" cy="813600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="4539880 Screenshot" descr="4539880"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="image23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3448050" y="19478625"/>
+          <a:ext cx="813600" cy="813600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="4540797 Screenshot" descr="4540797"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" r:embed="image24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3448050" y="20316825"/>
           <a:ext cx="813600" cy="813600"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -1065,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1159,7 +1368,7 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="66" customHeight="1">
@@ -1170,7 +1379,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>95654</v>
+        <v>64892</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1187,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>95658</v>
+        <v>95654</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="66" customHeight="1">
@@ -1204,13 +1413,13 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>95646</v>
+        <v>95658</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66" customHeight="1">
@@ -1221,10 +1430,10 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>32140</v>
+        <v>95646</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1232,33 +1441,33 @@
     </row>
     <row r="10" spans="1:6" ht="66" customHeight="1">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>32525</v>
+        <v>32523</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="66" customHeight="1">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>41239</v>
+        <v>32524</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1266,101 +1475,101 @@
     </row>
     <row r="12" spans="1:6" ht="66" customHeight="1">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>32123</v>
+        <v>32525</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" customHeight="1">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>2780</v>
+        <v>41239</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="66" customHeight="1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14">
-        <v>43093</v>
+        <v>32278</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="66" customHeight="1">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15">
-        <v>6558</v>
+        <v>32123</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66" customHeight="1">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>3706</v>
+        <v>2780</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="66" customHeight="1">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>32054</v>
+        <v>43093</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1368,16 +1577,16 @@
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>48989</v>
+        <v>32039</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1385,47 +1594,47 @@
     </row>
     <row r="19" spans="1:6" ht="66" customHeight="1">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>92911</v>
+        <v>3706</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66" customHeight="1">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>64179</v>
+        <v>32054</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="66" customHeight="1">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>64178</v>
+        <v>48989</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1434,12 +1643,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="66" customHeight="1">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>55615</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
       </c>
       <c r="F22">
-        <f>SUM(F2:F21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="66" customHeight="1">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>92911</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="66" customHeight="1">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>64179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66" customHeight="1">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>64178</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F2:F25)</f>
       </c>
     </row>
   </sheetData>
